--- a/docu/tmp/TestExperiment4.xlsx
+++ b/docu/tmp/TestExperiment4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530BEABD-035A-44E1-878A-2587D82F06B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8053EEC2-4DCB-4339-9046-503224157BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="1515" windowWidth="16155" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39450" yWindow="-3960" windowWidth="13830" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
   <si>
     <t>Experiment conditions</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>0,1263</t>
-  </si>
-  <si>
-    <t>0,9417</t>
   </si>
   <si>
     <t>0,5988</t>
@@ -852,7 +849,7 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1132,16 +1129,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1149,12 +1146,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1163,12 +1160,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1177,7 +1174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1191,7 +1188,7 @@
         <v>44525</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1202,8 +1199,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1220,7 +1217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
@@ -1234,7 +1231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1251,7 +1248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>0</v>
       </c>
@@ -1268,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -1285,7 +1282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>4</v>
       </c>
@@ -1302,7 +1299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>6</v>
       </c>
@@ -1319,7 +1316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -1336,7 +1333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>10</v>
       </c>
@@ -1353,7 +1350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -1370,7 +1367,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -1387,7 +1384,7 @@
         <v>13.693</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1404,7 +1401,7 @@
         <v>19.667999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1421,7 +1418,7 @@
         <v>26.169</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>20</v>
       </c>
@@ -1438,7 +1435,7 @@
         <v>27.103999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>22</v>
       </c>
@@ -1455,7 +1452,7 @@
         <v>25.655999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>24</v>
       </c>
@@ -1472,7 +1469,7 @@
         <v>20.606999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>26</v>
       </c>
@@ -1489,7 +1486,7 @@
         <v>16.271999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>28</v>
       </c>
@@ -1506,7 +1503,7 @@
         <v>11.042</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>30</v>
       </c>
@@ -1519,232 +1516,232 @@
       <c r="D25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="21">
+        <v>0.94169999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>32</v>
       </c>
       <c r="B26" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>34</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>36</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>38</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>40</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>45</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>50</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>55</v>
       </c>
       <c r="B33" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
         <v>60</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>65</v>
       </c>
       <c r="B35" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
         <v>70</v>
       </c>
       <c r="B36" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="E36" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
         <v>75</v>
       </c>
       <c r="B37" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9">
         <v>80</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9">
         <v>85</v>
       </c>
@@ -1752,33 +1749,33 @@
         <v>30</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="E39" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9">
         <v>90</v>
       </c>
       <c r="B40" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9">
         <v>105</v>
       </c>
@@ -1786,33 +1783,33 @@
         <v>25</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9">
         <v>120</v>
       </c>
       <c r="B42" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="E42" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9">
         <v>135</v>
       </c>
@@ -1820,33 +1817,33 @@
         <v>51</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9">
         <v>150</v>
       </c>
       <c r="B44" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9">
         <v>165</v>
       </c>
@@ -1854,33 +1851,33 @@
         <v>29</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
         <v>180</v>
       </c>
       <c r="B46" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="D46" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="E46" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E46" s="29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
